--- a/inst/extdata/toyFiles/FROC/1T3Rvs4R.xlsx
+++ b/inst/extdata/toyFiles/FROC/1T3Rvs4R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9103823-A993-C541-B2C8-2687611B5448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F436666-F124-884D-BC19-012A269F9F89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37280" yWindow="7320" windowWidth="12460" windowHeight="16980" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37280" yWindow="7320" windowWidth="12460" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Truth" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="14">
   <si>
     <t>CaseID</t>
   </si>
@@ -361,8 +361,8 @@
   </sheetPr>
   <dimension ref="A1:F763"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A763" sqref="A763"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -449,9 +449,7 @@
       <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
@@ -469,9 +467,7 @@
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7">
@@ -13751,7 +13747,7 @@
   </sheetPr>
   <dimension ref="A1:E553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
